--- a/charts.xlsx
+++ b/charts.xlsx
@@ -8,16 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianranasinghe/Documents/Research/nba_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290F5F92-A21F-CD45-8899-64B939837B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50C2BC0-59DA-8847-AA81-B4BA2426A8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{CDA20655-CB9A-6048-B7F3-F03B69A91338}"/>
+    <workbookView xWindow="11100" yWindow="780" windowWidth="21460" windowHeight="19840" xr2:uid="{CDA20655-CB9A-6048-B7F3-F03B69A91338}"/>
   </bookViews>
   <sheets>
     <sheet name="3PM% By Year" sheetId="2" r:id="rId1"/>
+    <sheet name="3PA By Team, Year" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3PA By Team, Year'!$A$1:$AC$1</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'3PM% By Year'!$B$2:$B$26</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'3PM% By Year'!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'3PA By Team, Year'!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'3PA By Team, Year'!$AA$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'3PA By Team, Year'!$AA$2:$AA$31</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'3PA By Team, Year'!$AB$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'3PA By Team, Year'!$AB$2:$AB$31</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'3PM% By Year'!$C$2:$C$26</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'3PM% By Year'!$D$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'3PM% By Year'!$D$2:$D$26</definedName>
@@ -47,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Season</t>
   </si>
@@ -56,6 +63,105 @@
   </si>
   <si>
     <t>3PM%</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>PHX</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
   </si>
 </sst>
 </file>
@@ -83,12 +189,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,13 +215,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -124,6 +242,9 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,8 +253,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF1D428A"/>
       <color rgb="FFC8102E"/>
-      <color rgb="FF1D428A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -198,8 +319,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12204724409448819"/>
-          <c:y val="1.9943019943019943E-2"/>
+          <c:x val="0.11999952272175014"/>
+          <c:y val="4.2735042735042736E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -243,9 +364,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.14748971193415639"/>
-          <c:y val="9.8967292549969735E-2"/>
+          <c:y val="0.1317308253135025"/>
           <c:w val="0.70559670781893002"/>
-          <c:h val="0.78601588263005573"/>
+          <c:h val="0.75325234986652301"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -726,7 +847,7 @@
                     </a:solidFill>
                     <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Average 3PA Per Game</a:t>
+                  <a:t>Average 3PA Per Regular Season Game</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -986,7 +1107,842 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2500" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>NBA 3-Point Shooting By Team</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13211654532839323"/>
+          <c:y val="3.4188034188034191E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16645440122615521"/>
+          <c:y val="0.12262826121093838"/>
+          <c:w val="0.72660119953606683"/>
+          <c:h val="0.75335430827556826"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3PA By Team, Year'!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>After</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1D428A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3PA By Team, Year'!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>CHI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CLE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CHA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BOS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GSW</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MIN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UTA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OKC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>WAS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SAS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PHI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ATL</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PHX</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MEM</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>DET</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>POR</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>NYK</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LAC</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>MIA</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ORL</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>IND</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>MIL</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DAL</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TOR</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>HOU</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>SAC</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>LAL</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>NOP</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>BKN</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>DEN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3PA By Team, Year'!$AB$2:$AB$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>44.028571428571396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.264705882352899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.757575757575701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.029411764705799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.2424242424242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.617647058823501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.03125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.514285714285698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.514285714285698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.848484848484802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.0277777777777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.0571428571428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.823529411764703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.4444444444444</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.205882352941103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.848484848484802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.3611111111111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.363636363636303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.657142857142802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.176470588235297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.257142857142803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.588235294117602</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33.914285714285697</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.342857142857099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.970588235294102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D91C-E044-BE48-A94154D723DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3PA By Team, Year'!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Before</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C8102E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3PA By Team, Year'!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>CHI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CLE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CHA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BOS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GSW</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MIN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UTA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OKC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>WAS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SAS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PHI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ATL</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PHX</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MEM</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>DET</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>POR</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>NYK</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>LAC</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>MIA</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ORL</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>IND</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>MIL</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DAL</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TOR</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>HOU</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>SAC</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>LAL</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>NOP</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>BKN</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>DEN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3PA By Team, Year'!$AA$2:$AA$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>11.5853658536585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0365853658536501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.7439024390243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.914634146341399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.756097560975601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.987804878048699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.390243902439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.5731707317073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.3414634146341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.3414634146341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7926829268292597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.3780487804878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.8536585365853</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.3658536585365</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.560975609755999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.890243902439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.597560975609699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.9634146341463</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.878048780487799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.414634146341399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.134146341463399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.060975609756099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.548780487804802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.1951219512195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.219512195121901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.5487804878048</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.890243902439</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.4634146341463</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.609756097560901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D91C-E044-BE48-A94154D723DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="726806127"/>
+        <c:axId val="726820239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="726806127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="1D428A"/>
+                    </a:solidFill>
+                    <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Average 3PA Per Game (2000 vs. 2024 Regular</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="1D428A"/>
+                    </a:solidFill>
+                    <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="1D428A"/>
+                    </a:solidFill>
+                    <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>eason)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726820239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="726820239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726806127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1529,6 +2485,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1799,6 +3260,495 @@
               </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>7</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>198967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>397940</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>173567</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE03E141-12BF-41EA-5D30-381F2E5568CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59259</cdr:x>
+      <cdr:y>0.9188</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3667287F-D092-41B7-15DA-4B2C15E3593D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3657600" y="8191500"/>
+          <a:ext cx="2514600" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Data source</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://nba.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Code</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://github.com/asranasinghe</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Compiled by </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>@SebbyStats</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" u="none">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67032</cdr:x>
+      <cdr:y>0.56743</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9339</cdr:x>
+      <cdr:y>0.7754</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E008DF0E-3C09-EA61-EF00-73E576DB6581}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4140194" y="5058833"/>
+          <a:ext cx="1627992" cy="1854200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>NOTE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>: CHA, OKC, MEM, NOP, BKN did not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> exist in 2000. Comparisons for these teams were made using their first respective regular season</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -2105,25 +4055,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C991D68-5362-2A4D-8759-E491B1E3B4D8}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2131,46 +4081,46 @@
       <c r="A2">
         <v>2000</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>2000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>27.415475000000001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <v>0.35036099999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>2001</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>29.498737999999999</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>0.35245900000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>2002</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>29.362489</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>0.34636600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>2003</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>29.850294000000002</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>0.34476600000000002</v>
       </c>
     </row>
@@ -2178,46 +4128,46 @@
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>2004</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>31.502438999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>0.35236099999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>2005</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>31.961789</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>0.35605999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>2006</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>33.876221000000001</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>0.35516900000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>2007</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>36.214633999999997</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>0.35934199999999999</v>
       </c>
     </row>
@@ -2225,46 +4175,46 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>2008</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>36.246341000000001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>0.364618</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>2009</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>36.278049000000003</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>0.35209600000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>2010</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>36.026828999999999</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>0.35580000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>2011</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>36.762625999999997</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>0.346086</v>
       </c>
     </row>
@@ -2272,46 +4222,46 @@
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>2012</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>39.924329</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>0.35610700000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>2013</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>43.068292999999997</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>0.35872199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>2014</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>44.826828999999996</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>0.34936499999999998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>2015</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>48.163415000000001</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>0.35257699999999997</v>
       </c>
     </row>
@@ -2319,46 +4269,46 @@
       <c r="A18">
         <v>2016</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>2016</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>54.000813000000001</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <v>0.35684300000000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>2017</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>57.999186999999999</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <v>0.36111599999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>2018</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>64.017886000000004</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <v>0.354879</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>2019</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>68.226629000000003</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>0.35775800000000002</v>
       </c>
     </row>
@@ -2366,46 +4316,46 @@
       <c r="A22">
         <v>2020</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>2020</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <v>69.279629999999997</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9">
         <v>0.36581399999999997</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>2021</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <v>70.353658999999993</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <v>0.35328700000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>2022</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <v>68.426828999999998</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="9">
         <v>0.36032199999999998</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>2023</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
         <v>70.207317000000003</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="9">
         <v>0.36540699999999998</v>
       </c>
     </row>
@@ -2413,13 +4363,13 @@
       <c r="A26">
         <v>2024</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>2024</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="7">
         <v>74.946746000000005</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="9">
         <v>0.359157</v>
       </c>
     </row>
@@ -2427,4 +4377,2711 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69333B8B-444A-584F-89BC-FC5AE6771195}">
+  <dimension ref="A1:AC31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AN20" sqref="AN20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="29" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2005</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2006</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2007</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2008</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2009</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2010</v>
+      </c>
+      <c r="M1" s="4">
+        <v>2011</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2012</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2013</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2014</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>2015</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2016</v>
+      </c>
+      <c r="S1" s="4">
+        <v>2017</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="U1" s="4">
+        <v>2019</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="W1" s="4">
+        <v>2021</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2022</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>2023</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>11.5853658536585</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10.5853658536585</v>
+      </c>
+      <c r="D2" s="7">
+        <v>12.1585365853658</v>
+      </c>
+      <c r="E2" s="7">
+        <v>15.3170731707317</v>
+      </c>
+      <c r="F2" s="7">
+        <v>17.475609756097501</v>
+      </c>
+      <c r="G2" s="7">
+        <v>18.012195121951201</v>
+      </c>
+      <c r="H2" s="7">
+        <v>15.1111111111111</v>
+      </c>
+      <c r="I2" s="7">
+        <v>15.914634146341401</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15.7682926829268</v>
+      </c>
+      <c r="K2" s="7">
+        <v>13</v>
+      </c>
+      <c r="L2" s="7">
+        <v>17.256097560975601</v>
+      </c>
+      <c r="M2" s="7">
+        <v>16.924242424242401</v>
+      </c>
+      <c r="N2" s="7">
+        <v>15.4268292682926</v>
+      </c>
+      <c r="O2" s="7">
+        <v>17.792682926829201</v>
+      </c>
+      <c r="P2" s="7">
+        <v>22.256097560975601</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>21.378048780487799</v>
+      </c>
+      <c r="R2" s="7">
+        <v>22.329268292682901</v>
+      </c>
+      <c r="S2" s="7">
+        <v>31.085365853658502</v>
+      </c>
+      <c r="T2" s="7">
+        <v>25.890243902439</v>
+      </c>
+      <c r="U2" s="7">
+        <v>35.107692307692297</v>
+      </c>
+      <c r="V2" s="7">
+        <v>33.9722222222222</v>
+      </c>
+      <c r="W2" s="7">
+        <v>28.829268292682901</v>
+      </c>
+      <c r="X2" s="7">
+        <v>28.865853658536501</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>32.0731707317073</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>44.028571428571396</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>11.5853658536585</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>44.028571428571396</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>32.443205574912895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>8.0365853658536501</v>
+      </c>
+      <c r="C3" s="7">
+        <v>12.5121951219512</v>
+      </c>
+      <c r="D3" s="7">
+        <v>10.9268292682926</v>
+      </c>
+      <c r="E3" s="7">
+        <v>9.58536585365853</v>
+      </c>
+      <c r="F3" s="7">
+        <v>11.024390243902401</v>
+      </c>
+      <c r="G3" s="7">
+        <v>17.865853658536501</v>
+      </c>
+      <c r="H3" s="7">
+        <v>17.121951219512098</v>
+      </c>
+      <c r="I3" s="7">
+        <v>18.829268292682901</v>
+      </c>
+      <c r="J3" s="7">
+        <v>20.365853658536501</v>
+      </c>
+      <c r="K3" s="7">
+        <v>19.292682926829201</v>
+      </c>
+      <c r="L3" s="7">
+        <v>18.158536585365798</v>
+      </c>
+      <c r="M3" s="7">
+        <v>19.2878787878787</v>
+      </c>
+      <c r="N3" s="7">
+        <v>19.280487804878</v>
+      </c>
+      <c r="O3" s="7">
+        <v>20</v>
+      </c>
+      <c r="P3" s="7">
+        <v>27.475609756097501</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>29.609756097560901</v>
+      </c>
+      <c r="R3" s="7">
+        <v>33.890243902439003</v>
+      </c>
+      <c r="S3" s="7">
+        <v>32.146341463414601</v>
+      </c>
+      <c r="T3" s="7">
+        <v>29.121951219512098</v>
+      </c>
+      <c r="U3" s="7">
+        <v>31.846153846153801</v>
+      </c>
+      <c r="V3" s="7">
+        <v>29.7361111111111</v>
+      </c>
+      <c r="W3" s="7">
+        <v>32.756097560975597</v>
+      </c>
+      <c r="X3" s="7">
+        <v>31.5731707317073</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>36.780487804878</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>40.264705882352899</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>8.0365853658536501</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>40.264705882352899</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>32.228120516499246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>10.7439024390243</v>
+      </c>
+      <c r="G4" s="7">
+        <v>15.3780487804878</v>
+      </c>
+      <c r="H4" s="7">
+        <v>15.609756097560901</v>
+      </c>
+      <c r="I4" s="7">
+        <v>17.597560975609699</v>
+      </c>
+      <c r="J4" s="7">
+        <v>16.329268292682901</v>
+      </c>
+      <c r="K4" s="7">
+        <v>16.231707317073099</v>
+      </c>
+      <c r="L4" s="7">
+        <v>14.670731707317</v>
+      </c>
+      <c r="M4" s="7">
+        <v>13.5151515151515</v>
+      </c>
+      <c r="N4" s="7">
+        <v>17.060975609756099</v>
+      </c>
+      <c r="O4" s="7">
+        <v>17.939024390243901</v>
+      </c>
+      <c r="P4" s="7">
+        <v>19.097560975609699</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>29.390243902439</v>
+      </c>
+      <c r="R4" s="7">
+        <v>28.621951219512098</v>
+      </c>
+      <c r="S4" s="7">
+        <v>27.231707317073099</v>
+      </c>
+      <c r="T4" s="7">
+        <v>33.939024390243901</v>
+      </c>
+      <c r="U4" s="7">
+        <v>34.323076923076897</v>
+      </c>
+      <c r="V4" s="7">
+        <v>37.0277777777777</v>
+      </c>
+      <c r="W4" s="7">
+        <v>38.170731707317003</v>
+      </c>
+      <c r="X4" s="7">
+        <v>32.548780487804798</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>41.757575757575701</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>10.7439024390243</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>41.757575757575701</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>31.013673318551401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>19.914634146341399</v>
+      </c>
+      <c r="C5" s="7">
+        <v>23.731707317073099</v>
+      </c>
+      <c r="D5" s="7">
+        <v>26.280487804878</v>
+      </c>
+      <c r="E5" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>15.2682926829268</v>
+      </c>
+      <c r="G5" s="7">
+        <v>15.7317073170731</v>
+      </c>
+      <c r="H5" s="7">
+        <v>15.646341463414601</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19.0731707317073</v>
+      </c>
+      <c r="J5" s="7">
+        <v>16.524390243902399</v>
+      </c>
+      <c r="K5" s="7">
+        <v>17.475609756097501</v>
+      </c>
+      <c r="L5" s="7">
+        <v>13.646341463414601</v>
+      </c>
+      <c r="M5" s="7">
+        <v>14.9696969696969</v>
+      </c>
+      <c r="N5" s="7">
+        <v>17.160493827160401</v>
+      </c>
+      <c r="O5" s="7">
+        <v>21.085365853658502</v>
+      </c>
+      <c r="P5" s="7">
+        <v>24.646341463414601</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>26.121951219512098</v>
+      </c>
+      <c r="R5" s="7">
+        <v>33.4268292682926</v>
+      </c>
+      <c r="S5" s="7">
+        <v>30.390243902439</v>
+      </c>
+      <c r="T5" s="7">
+        <v>34.5</v>
+      </c>
+      <c r="U5" s="7">
+        <v>34.5416666666666</v>
+      </c>
+      <c r="V5" s="7">
+        <v>36.3611111111111</v>
+      </c>
+      <c r="W5" s="7">
+        <v>37.121951219512198</v>
+      </c>
+      <c r="X5" s="7">
+        <v>42.585365853658502</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>42.463414634146297</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>50.285714285714199</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>19.914634146341399</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>50.285714285714199</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>30.3710801393728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>11.756097560975601</v>
+      </c>
+      <c r="C6" s="7">
+        <v>12.1219512195121</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15.060975609755999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>15.646341463414601</v>
+      </c>
+      <c r="F6" s="7">
+        <v>21.634146341463399</v>
+      </c>
+      <c r="G6" s="7">
+        <v>22.341463414634099</v>
+      </c>
+      <c r="H6" s="7">
+        <v>23.987804878048699</v>
+      </c>
+      <c r="I6" s="7">
+        <v>26.646341463414601</v>
+      </c>
+      <c r="J6" s="7">
+        <v>17.987804878048699</v>
+      </c>
+      <c r="K6" s="7">
+        <v>20.5731707317073</v>
+      </c>
+      <c r="L6" s="7">
+        <v>21.329268292682901</v>
+      </c>
+      <c r="M6" s="7">
+        <v>20.469696969696901</v>
+      </c>
+      <c r="N6" s="7">
+        <v>19.902439024390201</v>
+      </c>
+      <c r="O6" s="7">
+        <v>24.841463414634099</v>
+      </c>
+      <c r="P6" s="7">
+        <v>27.0365853658536</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>31.609756097560901</v>
+      </c>
+      <c r="R6" s="7">
+        <v>31.2439024390243</v>
+      </c>
+      <c r="S6" s="7">
+        <v>28.890243902439</v>
+      </c>
+      <c r="T6" s="7">
+        <v>34.439024390243901</v>
+      </c>
+      <c r="U6" s="7">
+        <v>31.2615384615384</v>
+      </c>
+      <c r="V6" s="7">
+        <v>38.7361111111111</v>
+      </c>
+      <c r="W6" s="7">
+        <v>39.402439024390198</v>
+      </c>
+      <c r="X6" s="7">
+        <v>43.170731707317003</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>38.914634146341399</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>41.029411764705799</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>11.756097560975601</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>41.029411764705799</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>29.273314203730198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10.987804878048699</v>
+      </c>
+      <c r="C7" s="7">
+        <v>12.7682926829268</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9.8048780487804805</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10.939024390243899</v>
+      </c>
+      <c r="F7" s="7">
+        <v>13.9634146341463</v>
+      </c>
+      <c r="G7" s="7">
+        <v>11.487804878048699</v>
+      </c>
+      <c r="H7" s="7">
+        <v>13.280487804878</v>
+      </c>
+      <c r="I7" s="7">
+        <v>15.3536585365853</v>
+      </c>
+      <c r="J7" s="7">
+        <v>18.768292682926798</v>
+      </c>
+      <c r="K7" s="7">
+        <v>14.402439024390199</v>
+      </c>
+      <c r="L7" s="7">
+        <v>19.085365853658502</v>
+      </c>
+      <c r="M7" s="7">
+        <v>21.560606060605998</v>
+      </c>
+      <c r="N7" s="7">
+        <v>17.987804878048699</v>
+      </c>
+      <c r="O7" s="7">
+        <v>21.4268292682926</v>
+      </c>
+      <c r="P7" s="7">
+        <v>14.914634146341401</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>16.4268292682926</v>
+      </c>
+      <c r="R7" s="7">
+        <v>21.012195121951201</v>
+      </c>
+      <c r="S7" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="T7" s="7">
+        <v>28.7439024390243</v>
+      </c>
+      <c r="U7" s="7">
+        <v>39.6875</v>
+      </c>
+      <c r="V7" s="7">
+        <v>37.5833333333333</v>
+      </c>
+      <c r="W7" s="7">
+        <v>41.292682926829201</v>
+      </c>
+      <c r="X7" s="7">
+        <v>33.304878048780402</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>32.695121951219498</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>10.987804878048699</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>29.012195121951301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7">
+        <v>10.390243902439</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10.2682926829268</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7.8170731707316996</v>
+      </c>
+      <c r="E8" s="7">
+        <v>9.58536585365853</v>
+      </c>
+      <c r="F8" s="7">
+        <v>9.2926829268292597</v>
+      </c>
+      <c r="G8" s="7">
+        <v>11.280487804878</v>
+      </c>
+      <c r="H8" s="7">
+        <v>12.8780487804878</v>
+      </c>
+      <c r="I8" s="7">
+        <v>13.3536585365853</v>
+      </c>
+      <c r="J8" s="7">
+        <v>13.682926829268199</v>
+      </c>
+      <c r="K8" s="7">
+        <v>14.719512195121901</v>
+      </c>
+      <c r="L8" s="7">
+        <v>15.3170731707317</v>
+      </c>
+      <c r="M8" s="7">
+        <v>12.803030303030299</v>
+      </c>
+      <c r="N8" s="7">
+        <v>16.890243902439</v>
+      </c>
+      <c r="O8" s="7">
+        <v>19.231707317073099</v>
+      </c>
+      <c r="P8" s="7">
+        <v>21.719512195121901</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>23.8536585365853</v>
+      </c>
+      <c r="R8" s="7">
+        <v>25.951219512195099</v>
+      </c>
+      <c r="S8" s="7">
+        <v>29.5731707317073</v>
+      </c>
+      <c r="T8" s="7">
+        <v>34.012195121951201</v>
+      </c>
+      <c r="U8" s="7">
+        <v>35.2361111111111</v>
+      </c>
+      <c r="V8" s="7">
+        <v>43.0277777777777</v>
+      </c>
+      <c r="W8" s="7">
+        <v>40.341463414634099</v>
+      </c>
+      <c r="X8" s="7">
+        <v>37.792682926829201</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>38.2424242424242</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>10.390243902439</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>38.2424242424242</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>27.8521803399852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7">
+        <v>11.5731707317073</v>
+      </c>
+      <c r="K9" s="7">
+        <v>14.987804878048699</v>
+      </c>
+      <c r="L9" s="7">
+        <v>17.109756097560901</v>
+      </c>
+      <c r="M9" s="7">
+        <v>19.9545454545454</v>
+      </c>
+      <c r="N9" s="7">
+        <v>19.365853658536501</v>
+      </c>
+      <c r="O9" s="7">
+        <v>22.4268292682926</v>
+      </c>
+      <c r="P9" s="7">
+        <v>22.731707317073099</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>23.719512195121901</v>
+      </c>
+      <c r="R9" s="7">
+        <v>25.804878048780399</v>
+      </c>
+      <c r="S9" s="7">
+        <v>30.378048780487799</v>
+      </c>
+      <c r="T9" s="7">
+        <v>32.646341463414601</v>
+      </c>
+      <c r="U9" s="7">
+        <v>30.1527777777777</v>
+      </c>
+      <c r="V9" s="7">
+        <v>35.125</v>
+      </c>
+      <c r="W9" s="7">
+        <v>37.390243902439003</v>
+      </c>
+      <c r="X9" s="7">
+        <v>34.109756097560897</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>34.207317073170699</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>38.617647058823501</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>11.5731707317073</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>38.617647058823501</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>27.0444763271162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7">
+        <v>10.3414634146341</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9.58536585365853</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9.8902439024390194</v>
+      </c>
+      <c r="E10" s="7">
+        <v>15.4756097560975</v>
+      </c>
+      <c r="F10" s="7">
+        <v>18.268292682926798</v>
+      </c>
+      <c r="G10" s="7">
+        <v>17</v>
+      </c>
+      <c r="H10" s="7">
+        <v>19.682926829268201</v>
+      </c>
+      <c r="I10" s="7">
+        <v>19.682926829268201</v>
+      </c>
+      <c r="J10" s="7">
+        <v>14.609756097560901</v>
+      </c>
+      <c r="K10" s="7">
+        <v>14.939024390243899</v>
+      </c>
+      <c r="L10" s="7">
+        <v>14.414634146341401</v>
+      </c>
+      <c r="M10" s="7">
+        <v>16.2878787878787</v>
+      </c>
+      <c r="N10" s="7">
+        <v>18.231707317073099</v>
+      </c>
+      <c r="O10" s="7">
+        <v>20.780487804878</v>
+      </c>
+      <c r="P10" s="7">
+        <v>16.841463414634099</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>24.182926829268201</v>
+      </c>
+      <c r="R10" s="7">
+        <v>24.756097560975601</v>
+      </c>
+      <c r="S10" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="T10" s="7">
+        <v>33.304878048780402</v>
+      </c>
+      <c r="U10" s="7">
+        <v>32.5694444444444</v>
+      </c>
+      <c r="V10" s="7">
+        <v>29</v>
+      </c>
+      <c r="W10" s="7">
+        <v>30.634146341463399</v>
+      </c>
+      <c r="X10" s="7">
+        <v>31.719512195121901</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>35.548780487804798</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>37.03125</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>10.3414634146341</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>37.03125</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>26.689786585365901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7">
+        <v>13.3414634146341</v>
+      </c>
+      <c r="C11" s="7">
+        <v>14.7682926829268</v>
+      </c>
+      <c r="D11" s="7">
+        <v>15.487804878048699</v>
+      </c>
+      <c r="E11" s="7">
+        <v>13.902439024390199</v>
+      </c>
+      <c r="F11" s="7">
+        <v>17.012195121951201</v>
+      </c>
+      <c r="G11" s="7">
+        <v>16.609756097560901</v>
+      </c>
+      <c r="H11" s="7">
+        <v>19.0365853658536</v>
+      </c>
+      <c r="I11" s="7">
+        <v>19.634146341463399</v>
+      </c>
+      <c r="J11" s="7">
+        <v>19.756097560975601</v>
+      </c>
+      <c r="K11" s="7">
+        <v>18.865853658536501</v>
+      </c>
+      <c r="L11" s="7">
+        <v>21.060975609756099</v>
+      </c>
+      <c r="M11" s="7">
+        <v>21.2878787878787</v>
+      </c>
+      <c r="N11" s="7">
+        <v>21.512195121951201</v>
+      </c>
+      <c r="O11" s="7">
+        <v>21.4268292682926</v>
+      </c>
+      <c r="P11" s="7">
+        <v>22.524390243902399</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>18.512195121951201</v>
+      </c>
+      <c r="R11" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="S11" s="7">
+        <v>24.109756097560901</v>
+      </c>
+      <c r="T11" s="7">
+        <v>25.256097560975601</v>
+      </c>
+      <c r="U11" s="7">
+        <v>28.4647887323943</v>
+      </c>
+      <c r="V11" s="7">
+        <v>28.4166666666666</v>
+      </c>
+      <c r="W11" s="7">
+        <v>32.024390243902403</v>
+      </c>
+      <c r="X11" s="7">
+        <v>32.195121951219498</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>36.378048780487802</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>39.514285714285698</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>13.3414634146341</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>39.514285714285698</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>26.1728222996516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7">
+        <v>9.7926829268292597</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8.7195121951219505</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9.5975609756097509</v>
+      </c>
+      <c r="E12" s="7">
+        <v>12.097560975609699</v>
+      </c>
+      <c r="F12" s="7">
+        <v>17.719512195121901</v>
+      </c>
+      <c r="G12" s="7">
+        <v>12.5731707317073</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10.0365853658536</v>
+      </c>
+      <c r="I12" s="7">
+        <v>11.609756097560901</v>
+      </c>
+      <c r="J12" s="7">
+        <v>13.0731707317073</v>
+      </c>
+      <c r="K12" s="7">
+        <v>16.841463414634099</v>
+      </c>
+      <c r="L12" s="7">
+        <v>15.219512195121901</v>
+      </c>
+      <c r="M12" s="7">
+        <v>14.590909090908999</v>
+      </c>
+      <c r="N12" s="7">
+        <v>17.5365853658536</v>
+      </c>
+      <c r="O12" s="7">
+        <v>22.524390243902399</v>
+      </c>
+      <c r="P12" s="7">
+        <v>26.341463414634099</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="R12" s="7">
+        <v>29.792682926829201</v>
+      </c>
+      <c r="S12" s="7">
+        <v>29.8170731707317</v>
+      </c>
+      <c r="T12" s="7">
+        <v>30.170731707317</v>
+      </c>
+      <c r="U12" s="7">
+        <v>31.602739726027298</v>
+      </c>
+      <c r="V12" s="7">
+        <v>30.125</v>
+      </c>
+      <c r="W12" s="7">
+        <v>31.804878048780399</v>
+      </c>
+      <c r="X12" s="7">
+        <v>32.621951219512198</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>33.329268292682897</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>35.6666666666666</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>9.7926829268292597</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>35.6666666666666</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>25.873983739837342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7">
+        <v>11.3780487804878</v>
+      </c>
+      <c r="C13" s="7">
+        <v>14.560975609755999</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13.914634146341401</v>
+      </c>
+      <c r="E13" s="7">
+        <v>15.2317073170731</v>
+      </c>
+      <c r="F13" s="7">
+        <v>11.8658536585365</v>
+      </c>
+      <c r="G13" s="7">
+        <v>14.0731707317073</v>
+      </c>
+      <c r="H13" s="7">
+        <v>12.6585365853658</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13.146341463414601</v>
+      </c>
+      <c r="J13" s="7">
+        <v>19.914634146341399</v>
+      </c>
+      <c r="K13" s="7">
+        <v>17.7439024390243</v>
+      </c>
+      <c r="L13" s="7">
+        <v>17.402439024390201</v>
+      </c>
+      <c r="M13" s="7">
+        <v>20.151515151515099</v>
+      </c>
+      <c r="N13" s="7">
+        <v>23.182926829268201</v>
+      </c>
+      <c r="O13" s="7">
+        <v>25.804878048780399</v>
+      </c>
+      <c r="P13" s="7">
+        <v>26.2439024390243</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>28.365853658536501</v>
+      </c>
+      <c r="R13" s="7">
+        <v>26.060975609756099</v>
+      </c>
+      <c r="S13" s="7">
+        <v>31.024390243902399</v>
+      </c>
+      <c r="T13" s="7">
+        <v>37</v>
+      </c>
+      <c r="U13" s="7">
+        <v>36.0597014925373</v>
+      </c>
+      <c r="V13" s="7">
+        <v>33.3611111111111</v>
+      </c>
+      <c r="W13" s="7">
+        <v>34.402439024390198</v>
+      </c>
+      <c r="X13" s="7">
+        <v>30.548780487804802</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>37.707317073170699</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>36.514285714285698</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>11.3780487804878</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>36.514285714285698</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>25.136236933797896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7">
+        <v>12.8536585365853</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13.3658536585365</v>
+      </c>
+      <c r="D14" s="7">
+        <v>14.0121951219512</v>
+      </c>
+      <c r="E14" s="7">
+        <v>14.6585365853658</v>
+      </c>
+      <c r="F14" s="7">
+        <v>24.707317073170699</v>
+      </c>
+      <c r="G14" s="7">
+        <v>25.5731707317073</v>
+      </c>
+      <c r="H14" s="7">
+        <v>23.8888888888888</v>
+      </c>
+      <c r="I14" s="7">
+        <v>21.512195121951201</v>
+      </c>
+      <c r="J14" s="7">
+        <v>17.621951219512098</v>
+      </c>
+      <c r="K14" s="7">
+        <v>21.585365853658502</v>
+      </c>
+      <c r="L14" s="7">
+        <v>22.646341463414601</v>
+      </c>
+      <c r="M14" s="7">
+        <v>19.6212121212121</v>
+      </c>
+      <c r="N14" s="7">
+        <v>17.7439024390243</v>
+      </c>
+      <c r="O14" s="7">
+        <v>25.060975609756099</v>
+      </c>
+      <c r="P14" s="7">
+        <v>24.975609756097501</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>25.829268292682901</v>
+      </c>
+      <c r="R14" s="7">
+        <v>22.609756097560901</v>
+      </c>
+      <c r="S14" s="7">
+        <v>27.878048780487799</v>
+      </c>
+      <c r="T14" s="7">
+        <v>29.268292682926798</v>
+      </c>
+      <c r="U14" s="7">
+        <v>31.780821917808201</v>
+      </c>
+      <c r="V14" s="7">
+        <v>34.5833333333333</v>
+      </c>
+      <c r="W14" s="7">
+        <v>31.902439024390201</v>
+      </c>
+      <c r="X14" s="7">
+        <v>32.609756097560897</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>32.5731707317073</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>37.848484848484802</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>12.8536585365853</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>37.848484848484802</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>24.994826311899502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>13.3658536585365</v>
+      </c>
+      <c r="D15" s="7">
+        <v>15.597560975609699</v>
+      </c>
+      <c r="E15" s="7">
+        <v>16.024390243902399</v>
+      </c>
+      <c r="F15" s="7">
+        <v>18.121951219512098</v>
+      </c>
+      <c r="G15" s="7">
+        <v>19.2439024390243</v>
+      </c>
+      <c r="H15" s="7">
+        <v>16.609756097560901</v>
+      </c>
+      <c r="I15" s="7">
+        <v>21.695121951219502</v>
+      </c>
+      <c r="J15" s="7">
+        <v>13.487804878048699</v>
+      </c>
+      <c r="K15" s="7">
+        <v>12.439024390243899</v>
+      </c>
+      <c r="L15" s="7">
+        <v>11.292682926829199</v>
+      </c>
+      <c r="M15" s="7">
+        <v>12.863636363636299</v>
+      </c>
+      <c r="N15" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="O15" s="7">
+        <v>13.987804878048699</v>
+      </c>
+      <c r="P15" s="7">
+        <v>15.1951219512195</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>18.548780487804802</v>
+      </c>
+      <c r="R15" s="7">
+        <v>26.451219512195099</v>
+      </c>
+      <c r="S15" s="7">
+        <v>26.2439024390243</v>
+      </c>
+      <c r="T15" s="7">
+        <v>28.878048780487799</v>
+      </c>
+      <c r="U15" s="7">
+        <v>31.4657534246575</v>
+      </c>
+      <c r="V15" s="7">
+        <v>31.3611111111111</v>
+      </c>
+      <c r="W15" s="7">
+        <v>32.670731707317003</v>
+      </c>
+      <c r="X15" s="7">
+        <v>34.231707317073102</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>37.768292682926798</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>38.0277777777777</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>13.3658536585365</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>38.0277777777777</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>24.661924119241199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7">
+        <v>13.560975609755999</v>
+      </c>
+      <c r="C16" s="7">
+        <v>18.402439024390201</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18.146341463414601</v>
+      </c>
+      <c r="E16" s="7">
+        <v>11.804878048780401</v>
+      </c>
+      <c r="F16" s="7">
+        <v>12.8414634146341</v>
+      </c>
+      <c r="G16" s="7">
+        <v>17.695121951219502</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15.914634146341401</v>
+      </c>
+      <c r="I16" s="7">
+        <v>16.219512195121901</v>
+      </c>
+      <c r="J16" s="7">
+        <v>13.1585365853658</v>
+      </c>
+      <c r="K16" s="7">
+        <v>14.5121951219512</v>
+      </c>
+      <c r="L16" s="7">
+        <v>15.3170731707317</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13.878787878787801</v>
+      </c>
+      <c r="N16" s="7">
+        <v>17.560975609756099</v>
+      </c>
+      <c r="O16" s="7">
+        <v>19.268292682926798</v>
+      </c>
+      <c r="P16" s="7">
+        <v>24.914634146341399</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>26.195121951219502</v>
+      </c>
+      <c r="R16" s="7">
+        <v>23.3536585365853</v>
+      </c>
+      <c r="S16" s="7">
+        <v>28.939024390243901</v>
+      </c>
+      <c r="T16" s="7">
+        <v>34.804878048780402</v>
+      </c>
+      <c r="U16" s="7">
+        <v>32.681818181818102</v>
+      </c>
+      <c r="V16" s="7">
+        <v>32.9166666666666</v>
+      </c>
+      <c r="W16" s="7">
+        <v>34.609756097560897</v>
+      </c>
+      <c r="X16" s="7">
+        <v>32.4268292682926</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>31.731707317073099</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>37.0571428571428</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>13.560975609755999</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>37.0571428571428</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>23.496167247386801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7">
+        <v>12.890243902439</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16.0731707317073</v>
+      </c>
+      <c r="D17" s="7">
+        <v>14.024390243902401</v>
+      </c>
+      <c r="E17" s="7">
+        <v>13.439024390243899</v>
+      </c>
+      <c r="F17" s="7">
+        <v>14.1585365853658</v>
+      </c>
+      <c r="G17" s="7">
+        <v>12.707317073170699</v>
+      </c>
+      <c r="H17" s="7">
+        <v>15.024390243902401</v>
+      </c>
+      <c r="I17" s="7">
+        <v>17.390243902439</v>
+      </c>
+      <c r="J17" s="7">
+        <v>18.9634146341463</v>
+      </c>
+      <c r="K17" s="7">
+        <v>16.9268292682926</v>
+      </c>
+      <c r="L17" s="7">
+        <v>18.329268292682901</v>
+      </c>
+      <c r="M17" s="7">
+        <v>20.939393939393899</v>
+      </c>
+      <c r="N17" s="7">
+        <v>23.219512195121901</v>
+      </c>
+      <c r="O17" s="7">
+        <v>25.256097560975601</v>
+      </c>
+      <c r="P17" s="7">
+        <v>27.207317073170699</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>28.487804878048699</v>
+      </c>
+      <c r="R17" s="7">
+        <v>27.707317073170699</v>
+      </c>
+      <c r="S17" s="7">
+        <v>28.146341463414601</v>
+      </c>
+      <c r="T17" s="7">
+        <v>30.731707317073099</v>
+      </c>
+      <c r="U17" s="7">
+        <v>34.1216216216216</v>
+      </c>
+      <c r="V17" s="7">
+        <v>40.8194444444444</v>
+      </c>
+      <c r="W17" s="7">
+        <v>36.792682926829201</v>
+      </c>
+      <c r="X17" s="7">
+        <v>35.280487804878</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>33.207317073170699</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>35.823529411764703</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>12.890243902439</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>35.823529411764703</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>22.933285509325703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7">
+        <v>13.597560975609699</v>
+      </c>
+      <c r="C18" s="7">
+        <v>16.390243902439</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19.292682926829201</v>
+      </c>
+      <c r="E18" s="7">
+        <v>13.597560975609699</v>
+      </c>
+      <c r="F18" s="7">
+        <v>15.1219512195121</v>
+      </c>
+      <c r="G18" s="7">
+        <v>10.780487804878</v>
+      </c>
+      <c r="H18" s="7">
+        <v>16.707317073170699</v>
+      </c>
+      <c r="I18" s="7">
+        <v>17.731707317073099</v>
+      </c>
+      <c r="J18" s="7">
+        <v>27.8536585365853</v>
+      </c>
+      <c r="K18" s="7">
+        <v>26.158536585365798</v>
+      </c>
+      <c r="L18" s="7">
+        <v>25.378048780487799</v>
+      </c>
+      <c r="M18" s="7">
+        <v>23.303030303030301</v>
+      </c>
+      <c r="N18" s="7">
+        <v>28.914634146341399</v>
+      </c>
+      <c r="O18" s="7">
+        <v>24.8536585365853</v>
+      </c>
+      <c r="P18" s="7">
+        <v>19.682926829268201</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>21.487804878048699</v>
+      </c>
+      <c r="R18" s="7">
+        <v>24.658536585365798</v>
+      </c>
+      <c r="S18" s="7">
+        <v>23.341463414634099</v>
+      </c>
+      <c r="T18" s="7">
+        <v>29.524390243902399</v>
+      </c>
+      <c r="U18" s="7">
+        <v>28.363636363636299</v>
+      </c>
+      <c r="V18" s="7">
+        <v>30.0416666666666</v>
+      </c>
+      <c r="W18" s="7">
+        <v>36.939024390243901</v>
+      </c>
+      <c r="X18" s="7">
+        <v>35.731707317073102</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>35.804878048780402</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>35.4444444444444</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>13.597560975609699</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>35.4444444444444</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>21.846883468834701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7">
+        <v>12.9634146341463</v>
+      </c>
+      <c r="C19" s="7">
+        <v>13.987804878048699</v>
+      </c>
+      <c r="D19" s="7">
+        <v>14.3658536585365</v>
+      </c>
+      <c r="E19" s="7">
+        <v>12.487804878048699</v>
+      </c>
+      <c r="F19" s="7">
+        <v>8.1585365853658498</v>
+      </c>
+      <c r="G19" s="7">
+        <v>10.280487804878</v>
+      </c>
+      <c r="H19" s="7">
+        <v>11.0121951219512</v>
+      </c>
+      <c r="I19" s="7">
+        <v>13.1585365853658</v>
+      </c>
+      <c r="J19" s="7">
+        <v>18.451219512195099</v>
+      </c>
+      <c r="K19" s="7">
+        <v>17.768292682926798</v>
+      </c>
+      <c r="L19" s="7">
+        <v>18.524390243902399</v>
+      </c>
+      <c r="M19" s="7">
+        <v>21.8333333333333</v>
+      </c>
+      <c r="N19" s="7">
+        <v>21.365853658536501</v>
+      </c>
+      <c r="O19" s="7">
+        <v>23.975609756097501</v>
+      </c>
+      <c r="P19" s="7">
+        <v>26.8536585365853</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>26.707317073170699</v>
+      </c>
+      <c r="R19" s="7">
+        <v>27.378048780487799</v>
+      </c>
+      <c r="S19" s="7">
+        <v>26.780487804878</v>
+      </c>
+      <c r="T19" s="7">
+        <v>25.829268292682901</v>
+      </c>
+      <c r="U19" s="7">
+        <v>33.4722222222222</v>
+      </c>
+      <c r="V19" s="7">
+        <v>34.6944444444444</v>
+      </c>
+      <c r="W19" s="7">
+        <v>34.170731707317003</v>
+      </c>
+      <c r="X19" s="7">
+        <v>33.3536585365853</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>33.158536585365802</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>34.205882352941103</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>12.9634146341463</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>34.205882352941103</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>21.242467718794803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>16.878048780487799</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10.9634146341463</v>
+      </c>
+      <c r="D20" s="7">
+        <v>13.414634146341401</v>
+      </c>
+      <c r="E20" s="7">
+        <v>16.548780487804802</v>
+      </c>
+      <c r="F20" s="7">
+        <v>15.3658536585365</v>
+      </c>
+      <c r="G20" s="7">
+        <v>17.5731707317073</v>
+      </c>
+      <c r="H20" s="7">
+        <v>18.790123456790099</v>
+      </c>
+      <c r="I20" s="7">
+        <v>16.7439024390243</v>
+      </c>
+      <c r="J20" s="7">
+        <v>19.890243902439</v>
+      </c>
+      <c r="K20" s="7">
+        <v>17.390243902439</v>
+      </c>
+      <c r="L20" s="7">
+        <v>18.0365853658536</v>
+      </c>
+      <c r="M20" s="7">
+        <v>15.6060606060606</v>
+      </c>
+      <c r="N20" s="7">
+        <v>22.060975609756099</v>
+      </c>
+      <c r="O20" s="7">
+        <v>22.304878048780399</v>
+      </c>
+      <c r="P20" s="7">
+        <v>20.231707317073099</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>18.048780487804802</v>
+      </c>
+      <c r="R20" s="7">
+        <v>26.987804878048699</v>
+      </c>
+      <c r="S20" s="7">
+        <v>30.560975609756099</v>
+      </c>
+      <c r="T20" s="7">
+        <v>32.414634146341399</v>
+      </c>
+      <c r="U20" s="7">
+        <v>35.397260273972599</v>
+      </c>
+      <c r="V20" s="7">
+        <v>36.1944444444444</v>
+      </c>
+      <c r="W20" s="7">
+        <v>35.804878048780402</v>
+      </c>
+      <c r="X20" s="7">
+        <v>34.780487804878</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>33.719512195121901</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>37.848484848484802</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>16.878048780487799</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>37.848484848484802</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>20.970436067997003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="7">
+        <v>16.414634146341399</v>
+      </c>
+      <c r="C21" s="7">
+        <v>20.2439024390243</v>
+      </c>
+      <c r="D21" s="7">
+        <v>19.390243902439</v>
+      </c>
+      <c r="E21" s="7">
+        <v>15.219512195121901</v>
+      </c>
+      <c r="F21" s="7">
+        <v>11.170731707317</v>
+      </c>
+      <c r="G21" s="7">
+        <v>9.7073170731707297</v>
+      </c>
+      <c r="H21" s="7">
+        <v>11.7317073170731</v>
+      </c>
+      <c r="I21" s="7">
+        <v>25.292682926829201</v>
+      </c>
+      <c r="J21" s="7">
+        <v>26.182926829268201</v>
+      </c>
+      <c r="K21" s="7">
+        <v>27.329268292682901</v>
+      </c>
+      <c r="L21" s="7">
+        <v>25.646341463414601</v>
+      </c>
+      <c r="M21" s="7">
+        <v>27.045454545454501</v>
+      </c>
+      <c r="N21" s="7">
+        <v>18.7439024390243</v>
+      </c>
+      <c r="O21" s="7">
+        <v>19.4634146341463</v>
+      </c>
+      <c r="P21" s="7">
+        <v>19.487804878048699</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>22.170731707317</v>
+      </c>
+      <c r="R21" s="7">
+        <v>26.085365853658502</v>
+      </c>
+      <c r="S21" s="7">
+        <v>29.329268292682901</v>
+      </c>
+      <c r="T21" s="7">
+        <v>32.109756097560897</v>
+      </c>
+      <c r="U21" s="7">
+        <v>32.246575342465697</v>
+      </c>
+      <c r="V21" s="7">
+        <v>31.7777777777777</v>
+      </c>
+      <c r="W21" s="7">
+        <v>36.8536585365853</v>
+      </c>
+      <c r="X21" s="7">
+        <v>31.109756097560901</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>31.3170731707317</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>36.8333333333333</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>16.414634146341399</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>36.8333333333333</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>20.418699186991901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7">
+        <v>14.134146341463399</v>
+      </c>
+      <c r="C22" s="7">
+        <v>14.5731707317073</v>
+      </c>
+      <c r="D22" s="7">
+        <v>13.646341463414601</v>
+      </c>
+      <c r="E22" s="7">
+        <v>15.6219512195121</v>
+      </c>
+      <c r="F22" s="7">
+        <v>19.207317073170699</v>
+      </c>
+      <c r="G22" s="7">
+        <v>18.731707317073099</v>
+      </c>
+      <c r="H22" s="7">
+        <v>16.939024390243901</v>
+      </c>
+      <c r="I22" s="7">
+        <v>24.646341463414601</v>
+      </c>
+      <c r="J22" s="7">
+        <v>21.0365853658536</v>
+      </c>
+      <c r="K22" s="7">
+        <v>23.121951219512098</v>
+      </c>
+      <c r="L22" s="7">
+        <v>20.158536585365798</v>
+      </c>
+      <c r="M22" s="7">
+        <v>16.1212121212121</v>
+      </c>
+      <c r="N22" s="7">
+        <v>19.740740740740701</v>
+      </c>
+      <c r="O22" s="7">
+        <v>18.804878048780399</v>
+      </c>
+      <c r="P22" s="7">
+        <v>21.219512195121901</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>23.0365853658536</v>
+      </c>
+      <c r="R22" s="7">
+        <v>22.987804878048699</v>
+      </c>
+      <c r="S22" s="7">
+        <v>24.512195121951201</v>
+      </c>
+      <c r="T22" s="7">
+        <v>25.378048780487799</v>
+      </c>
+      <c r="U22" s="7">
+        <v>28.027397260273901</v>
+      </c>
+      <c r="V22" s="7">
+        <v>33.9583333333333</v>
+      </c>
+      <c r="W22" s="7">
+        <v>35.3536585365853</v>
+      </c>
+      <c r="X22" s="7">
+        <v>36.951219512195102</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>35.256097560975597</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>34.3611111111111</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>14.134146341463399</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>34.3611111111111</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>20.226964769647701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7">
+        <v>18.060975609756099</v>
+      </c>
+      <c r="C23" s="7">
+        <v>19.304878048780399</v>
+      </c>
+      <c r="D23" s="7">
+        <v>18.609756097560901</v>
+      </c>
+      <c r="E23" s="7">
+        <v>13.9634146341463</v>
+      </c>
+      <c r="F23" s="7">
+        <v>11.280487804878</v>
+      </c>
+      <c r="G23" s="7">
+        <v>16.280487804878</v>
+      </c>
+      <c r="H23" s="7">
+        <v>17.951219512195099</v>
+      </c>
+      <c r="I23" s="7">
+        <v>16.012195121951201</v>
+      </c>
+      <c r="J23" s="7">
+        <v>17.170731707317</v>
+      </c>
+      <c r="K23" s="7">
+        <v>22.109756097560901</v>
+      </c>
+      <c r="L23" s="7">
+        <v>17.2439024390243</v>
+      </c>
+      <c r="M23" s="7">
+        <v>19.1666666666666</v>
+      </c>
+      <c r="N23" s="7">
+        <v>20.365853658536501</v>
+      </c>
+      <c r="O23" s="7">
+        <v>18.939024390243901</v>
+      </c>
+      <c r="P23" s="7">
+        <v>18.292682926829201</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>15.5731707317073</v>
+      </c>
+      <c r="R23" s="7">
+        <v>23.731707317073099</v>
+      </c>
+      <c r="S23" s="7">
+        <v>24.682926829268201</v>
+      </c>
+      <c r="T23" s="7">
+        <v>38.219512195121901</v>
+      </c>
+      <c r="U23" s="7">
+        <v>38.904109589041099</v>
+      </c>
+      <c r="V23" s="7">
+        <v>37.0694444444444</v>
+      </c>
+      <c r="W23" s="7">
+        <v>38.4268292682926</v>
+      </c>
+      <c r="X23" s="7">
+        <v>40.317073170731703</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>38.0731707317073</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>37.363636363636303</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>18.060975609756099</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>37.363636363636303</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>19.302660753880204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="7">
+        <v>16.548780487804802</v>
+      </c>
+      <c r="C24" s="7">
+        <v>20.060975609756099</v>
+      </c>
+      <c r="D24" s="7">
+        <v>20.341463414634099</v>
+      </c>
+      <c r="E24" s="7">
+        <v>17.756097560975601</v>
+      </c>
+      <c r="F24" s="7">
+        <v>15.524390243902401</v>
+      </c>
+      <c r="G24" s="7">
+        <v>13.5731707317073</v>
+      </c>
+      <c r="H24" s="7">
+        <v>17.121951219512098</v>
+      </c>
+      <c r="I24" s="7">
+        <v>17.109756097560901</v>
+      </c>
+      <c r="J24" s="7">
+        <v>19.902439024390201</v>
+      </c>
+      <c r="K24" s="7">
+        <v>18.268292682926798</v>
+      </c>
+      <c r="L24" s="7">
+        <v>21.560975609756099</v>
+      </c>
+      <c r="M24" s="7">
+        <v>22.181818181818102</v>
+      </c>
+      <c r="N24" s="7">
+        <v>19.8536585365853</v>
+      </c>
+      <c r="O24" s="7">
+        <v>22.890243902439</v>
+      </c>
+      <c r="P24" s="7">
+        <v>25.390243902439</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>28.560975609756099</v>
+      </c>
+      <c r="R24" s="7">
+        <v>30.158536585365798</v>
+      </c>
+      <c r="S24" s="7">
+        <v>32.780487804878</v>
+      </c>
+      <c r="T24" s="7">
+        <v>36.609756097560897</v>
+      </c>
+      <c r="U24" s="7">
+        <v>41.266666666666602</v>
+      </c>
+      <c r="V24" s="7">
+        <v>38.1111111111111</v>
+      </c>
+      <c r="W24" s="7">
+        <v>37.3536585365853</v>
+      </c>
+      <c r="X24" s="7">
+        <v>41</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>39.536585365853597</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>35.657142857142802</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>16.548780487804802</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>35.657142857142802</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>19.108362369338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="7">
+        <v>14.1951219512195</v>
+      </c>
+      <c r="C25" s="7">
+        <v>13.524390243902401</v>
+      </c>
+      <c r="D25" s="7">
+        <v>14.5487804878048</v>
+      </c>
+      <c r="E25" s="7">
+        <v>15.780487804878</v>
+      </c>
+      <c r="F25" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>19.756097560975601</v>
+      </c>
+      <c r="H25" s="7">
+        <v>17.8536585365853</v>
+      </c>
+      <c r="I25" s="7">
+        <v>17.792682926829201</v>
+      </c>
+      <c r="J25" s="7">
+        <v>15.719512195121901</v>
+      </c>
+      <c r="K25" s="7">
+        <v>17.0365853658536</v>
+      </c>
+      <c r="L25" s="7">
+        <v>13.304878048780401</v>
+      </c>
+      <c r="M25" s="7">
+        <v>16.2878787878787</v>
+      </c>
+      <c r="N25" s="7">
+        <v>20.304878048780399</v>
+      </c>
+      <c r="O25" s="7">
+        <v>23.378048780487799</v>
+      </c>
+      <c r="P25" s="7">
+        <v>25.121951219512098</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>23.3536585365853</v>
+      </c>
+      <c r="R25" s="7">
+        <v>24.341463414634099</v>
+      </c>
+      <c r="S25" s="7">
+        <v>32.987804878048699</v>
+      </c>
+      <c r="T25" s="7">
+        <v>33.792682926829201</v>
+      </c>
+      <c r="U25" s="7">
+        <v>36.9861111111111</v>
+      </c>
+      <c r="V25" s="7">
+        <v>39.3194444444444</v>
+      </c>
+      <c r="W25" s="7">
+        <v>34.243902439024303</v>
+      </c>
+      <c r="X25" s="7">
+        <v>32.024390243902403</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>33.0731707317073</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>33.285714285714199</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>14.1951219512195</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>33.285714285714199</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>19.090592334494701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="7">
+        <v>17.219512195121901</v>
+      </c>
+      <c r="C26" s="7">
+        <v>18.048780487804802</v>
+      </c>
+      <c r="D26" s="7">
+        <v>15.451219512195101</v>
+      </c>
+      <c r="E26" s="7">
+        <v>17.146341463414601</v>
+      </c>
+      <c r="F26" s="7">
+        <v>18.548780487804802</v>
+      </c>
+      <c r="G26" s="7">
+        <v>17.2439024390243</v>
+      </c>
+      <c r="H26" s="7">
+        <v>23.085365853658502</v>
+      </c>
+      <c r="I26" s="7">
+        <v>20.8170731707317</v>
+      </c>
+      <c r="J26" s="7">
+        <v>20.195121951219502</v>
+      </c>
+      <c r="K26" s="7">
+        <v>22.414634146341399</v>
+      </c>
+      <c r="L26" s="7">
+        <v>22.475609756097501</v>
+      </c>
+      <c r="M26" s="7">
+        <v>20.151515151515099</v>
+      </c>
+      <c r="N26" s="7">
+        <v>28.890243902439</v>
+      </c>
+      <c r="O26" s="7">
+        <v>26.5731707317073</v>
+      </c>
+      <c r="P26" s="7">
+        <v>32.682926829268197</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>30.890243902439</v>
+      </c>
+      <c r="R26" s="7">
+        <v>40.317073170731703</v>
+      </c>
+      <c r="S26" s="7">
+        <v>42.317073170731703</v>
+      </c>
+      <c r="T26" s="7">
+        <v>45.378048780487802</v>
+      </c>
+      <c r="U26" s="7">
+        <v>45.2916666666666</v>
+      </c>
+      <c r="V26" s="7">
+        <v>40.5972222222222</v>
+      </c>
+      <c r="W26" s="7">
+        <v>38.658536585365802</v>
+      </c>
+      <c r="X26" s="7">
+        <v>31.939024390243901</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>36.146341463414601</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>36.176470588235297</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>17.219512195121901</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>36.176470588235297</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>18.956958393113396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="C27" s="7">
+        <v>14.146341463414601</v>
+      </c>
+      <c r="D27" s="7">
+        <v>15.707317073170699</v>
+      </c>
+      <c r="E27" s="7">
+        <v>18.268292682926798</v>
+      </c>
+      <c r="F27" s="7">
+        <v>17.024390243902399</v>
+      </c>
+      <c r="G27" s="7">
+        <v>17.170731707317</v>
+      </c>
+      <c r="H27" s="7">
+        <v>18.451219512195099</v>
+      </c>
+      <c r="I27" s="7">
+        <v>16.670731707317</v>
+      </c>
+      <c r="J27" s="7">
+        <v>19.439024390243901</v>
+      </c>
+      <c r="K27" s="7">
+        <v>16.865853658536501</v>
+      </c>
+      <c r="L27" s="7">
+        <v>15.5731707317073</v>
+      </c>
+      <c r="M27" s="7">
+        <v>19.7121212121212</v>
+      </c>
+      <c r="N27" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="O27" s="7">
+        <v>17.987804878048699</v>
+      </c>
+      <c r="P27" s="7">
+        <v>16.4634146341463</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>22.4268292682926</v>
+      </c>
+      <c r="R27" s="7">
+        <v>23.902439024390201</v>
+      </c>
+      <c r="S27" s="7">
+        <v>23.987804878048699</v>
+      </c>
+      <c r="T27" s="7">
+        <v>29.939024390243901</v>
+      </c>
+      <c r="U27" s="7">
+        <v>34.875</v>
+      </c>
+      <c r="V27" s="7">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="W27" s="7">
+        <v>33.195121951219498</v>
+      </c>
+      <c r="X27" s="7">
+        <v>37.317073170731703</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>39.256097560975597</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>35.257142857142803</v>
+      </c>
+      <c r="AA27" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>35.257142857142803</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>18.757142857142803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="7">
+        <v>15.5487804878048</v>
+      </c>
+      <c r="C28" s="7">
+        <v>17.548780487804802</v>
+      </c>
+      <c r="D28" s="7">
+        <v>16.670731707317</v>
+      </c>
+      <c r="E28" s="7">
+        <v>13.597560975609699</v>
+      </c>
+      <c r="F28" s="7">
+        <v>22.109756097560901</v>
+      </c>
+      <c r="G28" s="7">
+        <v>19.304878048780399</v>
+      </c>
+      <c r="H28" s="7">
+        <v>21.1358024691358</v>
+      </c>
+      <c r="I28" s="7">
+        <v>21.3536585365853</v>
+      </c>
+      <c r="J28" s="7">
+        <v>18.487804878048699</v>
+      </c>
+      <c r="K28" s="7">
+        <v>19.048780487804802</v>
+      </c>
+      <c r="L28" s="7">
+        <v>18.134146341463399</v>
+      </c>
+      <c r="M28" s="7">
+        <v>16.848484848484802</v>
+      </c>
+      <c r="N28" s="7">
+        <v>24.5731707317073</v>
+      </c>
+      <c r="O28" s="7">
+        <v>24.780487804878</v>
+      </c>
+      <c r="P28" s="7">
+        <v>18.8536585365853</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>24.585365853658502</v>
+      </c>
+      <c r="R28" s="7">
+        <v>25.731707317073099</v>
+      </c>
+      <c r="S28" s="7">
+        <v>29.0731707317073</v>
+      </c>
+      <c r="T28" s="7">
+        <v>30.987804878048699</v>
+      </c>
+      <c r="U28" s="7">
+        <v>31.5774647887323</v>
+      </c>
+      <c r="V28" s="7">
+        <v>31.2222222222222</v>
+      </c>
+      <c r="W28" s="7">
+        <v>34.463414634146297</v>
+      </c>
+      <c r="X28" s="7">
+        <v>31.195121951219502</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>31.365853658536501</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>33.588235294117602</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>15.5487804878048</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>33.588235294117602</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>18.039454806312804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7">
+        <v>15.890243902439</v>
+      </c>
+      <c r="P29" s="7">
+        <v>19.304878048780399</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>23.792682926829201</v>
+      </c>
+      <c r="R29" s="7">
+        <v>26.780487804878</v>
+      </c>
+      <c r="S29" s="7">
+        <v>28.195121951219502</v>
+      </c>
+      <c r="T29" s="7">
+        <v>29.865853658536501</v>
+      </c>
+      <c r="U29" s="7">
+        <v>36.8888888888888</v>
+      </c>
+      <c r="V29" s="7">
+        <v>30.4166666666666</v>
+      </c>
+      <c r="W29" s="7">
+        <v>32.060975609756099</v>
+      </c>
+      <c r="X29" s="7">
+        <v>30.097560975609699</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>32.597560975609703</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>33.914285714285697</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>15.890243902439</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>33.914285714285697</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>18.024041811846697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7">
+        <v>21.4634146341463</v>
+      </c>
+      <c r="O30" s="7">
+        <v>23.439024390243901</v>
+      </c>
+      <c r="P30" s="7">
+        <v>19.914634146341399</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>18.390243902439</v>
+      </c>
+      <c r="R30" s="7">
+        <v>31.597560975609699</v>
+      </c>
+      <c r="S30" s="7">
+        <v>35.658536585365802</v>
+      </c>
+      <c r="T30" s="7">
+        <v>36.158536585365802</v>
+      </c>
+      <c r="U30" s="7">
+        <v>38.1388888888888</v>
+      </c>
+      <c r="V30" s="7">
+        <v>36.1111111111111</v>
+      </c>
+      <c r="W30" s="7">
+        <v>31.731707317073099</v>
+      </c>
+      <c r="X30" s="7">
+        <v>33.792682926829201</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>36.707317073170699</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>39.342857142857099</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>21.4634146341463</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>39.342857142857099</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>17.879442508710799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="7">
+        <v>17.609756097560901</v>
+      </c>
+      <c r="C31" s="7">
+        <v>15.670731707317</v>
+      </c>
+      <c r="D31" s="7">
+        <v>10.0487804878048</v>
+      </c>
+      <c r="E31" s="7">
+        <v>12.0121951219512</v>
+      </c>
+      <c r="F31" s="7">
+        <v>11.4634146341463</v>
+      </c>
+      <c r="G31" s="7">
+        <v>13.1219512195121</v>
+      </c>
+      <c r="H31" s="7">
+        <v>17.560975609756099</v>
+      </c>
+      <c r="I31" s="7">
+        <v>19.5731707317073</v>
+      </c>
+      <c r="J31" s="7">
+        <v>18.012195121951201</v>
+      </c>
+      <c r="K31" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="L31" s="7">
+        <v>20.780487804878</v>
+      </c>
+      <c r="M31" s="7">
+        <v>19.863636363636299</v>
+      </c>
+      <c r="N31" s="7">
+        <v>18.512195121951201</v>
+      </c>
+      <c r="O31" s="7">
+        <v>23.890243902439</v>
+      </c>
+      <c r="P31" s="7">
+        <v>24.780487804878</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>23.695121951219502</v>
+      </c>
+      <c r="R31" s="7">
+        <v>28.841463414634099</v>
+      </c>
+      <c r="S31" s="7">
+        <v>30.9268292682926</v>
+      </c>
+      <c r="T31" s="7">
+        <v>31.3536585365853</v>
+      </c>
+      <c r="U31" s="7">
+        <v>30.602739726027298</v>
+      </c>
+      <c r="V31" s="7">
+        <v>34.1944444444444</v>
+      </c>
+      <c r="W31" s="7">
+        <v>35.902439024390198</v>
+      </c>
+      <c r="X31" s="7">
+        <v>31.207317073170699</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>31.219512195121901</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>30.970588235294102</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>17.609756097560901</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>30.970588235294102</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>13.360832137733201</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AC1" xr:uid="{69333B8B-444A-584F-89BC-FC5AE6771195}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC31">
+      <sortCondition descending="1" ref="AC1:AC31"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>